--- a/data/trans_dic/P37A-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P37A-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que con las horas que duerme, descansa lo suficiente</t>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>75,83%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,71%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>72,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>66,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>75,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>71,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,68; 84,47</t>
+          <t>70,89; 84,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,17; 81,46</t>
+          <t>70,06; 83,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,93; 81,92</t>
+          <t>66,67; 82,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,11; 75,86</t>
+          <t>69,83; 85,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,59; 73,22</t>
+          <t>65,66; 78,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,95; 77,37</t>
+          <t>59,5; 72,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,01; 78,8</t>
+          <t>60,24; 73,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,9; 75,64</t>
+          <t>58,82; 72,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,51; 77,41</t>
+          <t>70,02; 79,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 76,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65,72; 76,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65,87; 77,41</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>81,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>76,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,25%</t>
+          <t>71,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>69,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>57,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>74,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>72,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>73,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>67,29%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,98; 87,81</t>
+          <t>67,36; 84,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,97; 86,41</t>
+          <t>67,92; 83,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,76; 88,67</t>
+          <t>74,13; 87,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,58; 78,36</t>
+          <t>68,64; 83,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,58; 75,43</t>
+          <t>64,76; 78,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,21; 70,29</t>
+          <t>61,21; 75,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,88; 81,27</t>
+          <t>55,72; 71,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,47; 79,55</t>
+          <t>46,23; 66,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,9; 78,25</t>
+          <t>68,44; 79,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>67,1; 77,81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>67,4; 78,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58,85; 72,74</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>86,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>67,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>78,53%</t>
+          <t>81,66%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>76,47%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>70,19%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>77,84%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,57; 90,82</t>
+          <t>70,04; 96,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,89; 95,49</t>
+          <t>66,11; 97,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,65; 96,05</t>
+          <t>27,59; 92,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,03; 85,85</t>
+          <t>59,17; 95,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,04; 84,07</t>
+          <t>60,41; 87,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,0; 83,35</t>
+          <t>52,78; 80,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,77; 86,37</t>
+          <t>56,14; 86,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,83; 87,18</t>
+          <t>57,98; 87,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,77; 86,46</t>
+          <t>70,05; 89,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63,99; 86,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46,8; 84,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65,5; 87,69</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>77,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>77,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>72,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>75,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>71,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>70,45%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,33; 84,09</t>
+          <t>73,12; 83,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,19; 83,44</t>
+          <t>72,5; 82,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,7; 84,18</t>
+          <t>69,37; 82,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,05; 76,38</t>
+          <t>72,13; 82,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,77; 73,21</t>
+          <t>67,22; 76,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,51; 73,01</t>
+          <t>62,51; 72,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,96; 79,13</t>
+          <t>62,07; 71,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 76,91</t>
+          <t>56,82; 68,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,72; 77,14</t>
+          <t>71,74; 78,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>69,01; 76,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67,3; 75,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>66,19; 74,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,22%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>336205</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>281566</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>282269</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>390876</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>364643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>275092</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>273385</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>355500</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>700848</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>556659</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>555654</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>746376</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>303242; 363278</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>255126; 305466</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>250062; 308853</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>353600; 431431</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>331332; 394832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>245570; 301115</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>244436; 298917</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>316800; 393024</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>652817; 739906</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>518555; 595341</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>513131; 596408</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>688301; 808926</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>274173</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>240749</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>260340</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>317330</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>294633</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>229667</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>208842</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>242932</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>568807</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>470417</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>469181</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>560263</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>239208; 300674</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>214808; 264033</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>236282; 279979</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>283007; 344506</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>266064; 322145</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>203425; 252280</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>180324; 232697</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>194309; 279509</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>524185; 607820</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>435228; 504641</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>432969; 501784</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>490006; 605656</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86194</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68724</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55946</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>89097</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>54508</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>58636</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81154</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>123232</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>114582</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>170251</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68886; 95105</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52624; 77250</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22880; 77069</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>64840; 104940</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59706; 86759</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43043; 66045</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45077; 69087</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63278; 95119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>138130; 177322</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>103130; 139596</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>76392; 137194</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>143276; 191792</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>696572</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>591040</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>598554</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>797303</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>734118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>559267</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>540863</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>679586</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1430690</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1150308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1139418</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1476889</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>644380; 732969</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>551015; 626181</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>538825; 637652</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>741749; 851093</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>681832; 774556</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>516725; 595495</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>502557; 579302</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>606850; 731206</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1359764; 1486932</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1094862; 1209565</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1067608; 1197127</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1387641; 1561138</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
